--- a/结果/任恒谦.xlsx
+++ b/结果/任恒谦.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
   <si>
     <t>姓名</t>
   </si>
@@ -50,18 +50,30 @@
     <t>单价</t>
   </si>
   <si>
+    <t>0021 第21章 ：带进来吧.docx</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1151</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>0022 第22章 ：我现在就弄死你.docx</t>
+  </si>
+  <si>
+    <t>1253</t>
+  </si>
+  <si>
     <t>0023 第23章 ：别吵了行不行.docx</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>1124</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>0024 第24章 ：不如一个傻子…….docx</t>
   </si>
   <si>
@@ -80,6 +92,12 @@
     <t>1470</t>
   </si>
   <si>
+    <t>0027 第27章 ：“大敌”来临.docx</t>
+  </si>
+  <si>
+    <t>1244</t>
+  </si>
+  <si>
     <t>0028 第28章 ：看来你们挺有渊源.docx</t>
   </si>
   <si>
@@ -90,24 +108,6 @@
   </si>
   <si>
     <t>1422</t>
-  </si>
-  <si>
-    <t>0027 第27章 ：“大敌”来临.docx</t>
-  </si>
-  <si>
-    <t>1244</t>
-  </si>
-  <si>
-    <t>0021 第21章 ：带进来吧.docx</t>
-  </si>
-  <si>
-    <t>1151</t>
-  </si>
-  <si>
-    <t>0022 第22章 ：我现在就弄死你.docx</t>
-  </si>
-  <si>
-    <t>1253</t>
   </si>
   <si>
     <t>0030 第30章 ：藏得很深.docx</t>
@@ -395,221 +395,6 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C17" t="n">
-        <v>13005.0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
